--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17320"/>
+    <workbookView windowWidth="26520" windowHeight="14300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Robot区" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Id</t>
   </si>
@@ -71,6 +72,12 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
   </si>
 </sst>
 </file>
@@ -78,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -120,6 +127,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -127,14 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -143,7 +150,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,9 +179,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,24 +218,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,58 +258,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,13 +284,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +320,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,31 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,109 +428,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +477,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,11 +514,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,21 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,142 +572,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,8 +1082,8 @@
   <sheetPr/>
   <dimension ref="C3:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="7"/>
@@ -1254,4 +1261,108 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C3:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8">
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="3:8">
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>